--- a/TNR_JDD/JDD.RT.EMP.xlsx
+++ b/TNR_JDD/JDD.RT.EMP.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjYQvF/c0ZXPmZTUIz0WpH4fsu5/Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7min2WFFyMBL3CCx4AaeNrh3eBAd1Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -38,7 +38,7 @@
     <t>JM Lafarge</t>
   </si>
   <si>
-    <t>DRAFT</t>
+    <t>Création de l'onglet 001 pour la table EMP</t>
   </si>
   <si>
     <t>Version de Mainta pour laquelle le JDD de référence est validé</t>
@@ -50,6 +50,9 @@
     <t>TABLE</t>
   </si>
   <si>
+    <t>TYPE</t>
+  </si>
+  <si>
     <t>Num écran</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t>Libellé des champs (colonnes)</t>
   </si>
   <si>
+    <t>PK en rouge</t>
+  </si>
+  <si>
     <t>La rubrique n'est pas présente dans l'IHM</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t>Trace date création</t>
   </si>
   <si>
+    <t>numeric</t>
+  </si>
+  <si>
     <t>Calculé</t>
   </si>
   <si>
@@ -119,6 +128,9 @@
     <t>Utilisateur</t>
   </si>
   <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
     <t>BDD MASTER</t>
   </si>
   <si>
@@ -128,18 +140,27 @@
     <t>Données étendues</t>
   </si>
   <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
     <t>ID_NUMEMP</t>
   </si>
   <si>
     <t>Identifiant technique de l'emplacement</t>
   </si>
   <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
     <t>ID_NUMZON</t>
   </si>
   <si>
     <t>Identifiant de la Zone</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>NU_NIV</t>
   </si>
   <si>
@@ -152,6 +173,9 @@
     <t>Parent dans l'arborescence</t>
   </si>
   <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
     <t>NU_ORD</t>
   </si>
   <si>
@@ -198,6 +222,9 @@
   </si>
   <si>
     <t>Trace utilisateur création</t>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
   <si>
     <t>ST_TRAUTIUPD</t>
@@ -231,7 +258,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -250,8 +277,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -275,6 +311,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -286,17 +328,13 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="9.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -388,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -401,14 +439,20 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -417,26 +461,38 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf quotePrefix="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
@@ -444,37 +500,43 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="8" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -702,7 +764,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="29.88"/>
+    <col customWidth="1" min="3" max="3" width="38.5"/>
     <col customWidth="1" min="4" max="4" width="10.63"/>
     <col customWidth="1" min="5" max="5" width="12.13"/>
     <col customWidth="1" min="6" max="26" width="10.63"/>
@@ -732,12 +794,12 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1848,344 +1910,411 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="13.5"/>
     <col customWidth="1" min="2" max="2" width="61.5"/>
-    <col customWidth="1" min="3" max="3" width="25.63"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="11.88"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col customWidth="1" min="3" max="4" width="25.63"/>
+    <col customWidth="1" min="5" max="5" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="11.88"/>
+    <col customWidth="1" min="7" max="27" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="F1" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="A3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="6">
         <v>1000.0</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="C4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="D5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>26</v>
+      <c r="F6" s="23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>26</v>
+      <c r="A7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="13" t="s">
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="E16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>33</v>
+      <c r="A23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1"/>
@@ -3098,198 +3227,198 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="A1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="M1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="23" t="s">
+      <c r="R1" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="34"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
+      <c r="A3" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
+      <c r="A4" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
+      <c r="A5" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
+      <c r="A6" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.RT.EMP.xlsx
+++ b/TNR_JDD/JDD.RT.EMP.xlsx
@@ -10,15 +10,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7min2WFFyMBL3CCx4AaeNrh3eBAd1Q=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="cNor0ZVDlrBAbpvZ3ejcGOX1KuJLDJuk1uRTKuDmkFg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -249,16 +249,77 @@
   </si>
   <si>
     <t>CAS_DE_TEST</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.CRE.01</t>
+  </si>
+  <si>
+    <t>$NULL</t>
+  </si>
+  <si>
+    <t>EMP.RT.EQU.001.CRE.01</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>EMP001</t>
+  </si>
+  <si>
+    <t>$DATETIMESYS</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.LEC.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.EQU.001.LEC.01</t>
+  </si>
+  <si>
+    <t>EMP002</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.EQU.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>EMP003</t>
+  </si>
+  <si>
+    <t>EMP.UPD.RT.EQU.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>EMP004</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.SUP.01</t>
+  </si>
+  <si>
+    <t>EMP005</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.REC.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.EQU.001.REC.01</t>
+  </si>
+  <si>
+    <t>EMP006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -337,8 +398,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +464,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border/>
@@ -426,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -538,6 +609,31 @@
     </xf>
     <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3224,6 +3320,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="16.63"/>
+    <col customWidth="1" min="7" max="7" width="24.63"/>
+    <col customWidth="1" min="8" max="8" width="24.25"/>
+    <col customWidth="1" min="9" max="9" width="26.63"/>
+    <col customWidth="1" min="14" max="14" width="15.88"/>
+    <col customWidth="1" min="20" max="21" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -3420,12 +3521,408 @@
       <c r="T6" s="39"/>
       <c r="U6" s="39"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="41">
+        <v>1000.0</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="17" t="str">
+        <f t="shared" ref="G7:G12" si="1">CONCATENATE(UPPER(H7),REPT(".",30-LEN(H7)))</f>
+        <v>EMP.RT.EQU.001.CRE.01.........</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="44" t="str">
+        <f t="shared" ref="I7:I12" si="2">G7</f>
+        <v>EMP.RT.EQU.001.CRE.01.........</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="41">
+        <v>1001.0</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EMP.RT.EQU.001.LEC.01.........</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>EMP.RT.EQU.001.LEC.01.........</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="41">
+        <v>1002.0</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EMP.RT.EQU.001.MAJ.01.........</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>EMP.RT.EQU.001.MAJ.01.........</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="T9" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="41">
+        <v>1003.0</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EMP.UPD.RT.EQU.001.MAJ.01.....</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>EMP.UPD.RT.EQU.001.MAJ.01.....</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="T10" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="41">
+        <v>1004.0</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="F11" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EMP.RT.EQU.001.MAJ.01.........</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>EMP.RT.EQU.001.MAJ.01.........</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="T11" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="U11" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="41">
+        <v>1005.0</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="F12" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>EMP.RT.EQU.001.REC.01.........</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>EMP.RT.EQU.001.REC.01.........</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="T12" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="U12" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -4400,8 +4897,6 @@
     <row r="984" ht="15.75" customHeight="1"/>
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/TNR_JDD/JDD.RT.EMP.xlsx
+++ b/TNR_JDD/JDD.RT.EMP.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="cNor0ZVDlrBAbpvZ3ejcGOX1KuJLDJuk1uRTKuDmkFg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="EkYUx4C9qjqk1bQB+IwR2rT+q+fuMdzG67UCI4zxlPU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -80,159 +80,159 @@
     <t>EMP</t>
   </si>
   <si>
+    <t>ID_NUMEMP</t>
+  </si>
+  <si>
+    <t>Identifiant technique de l'emplacement</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>Calculé</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NU_NUMPER</t>
+  </si>
+  <si>
+    <t>Parent dans l'arborescence</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>ID_EXT</t>
+  </si>
+  <si>
+    <t>Données étendues</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>NU_ORD</t>
+  </si>
+  <si>
+    <t>Ordre entre frères dans l'arborescence</t>
+  </si>
+  <si>
+    <t>NU_NIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niveau dans l'arborescence </t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>ST_CODCOU</t>
+  </si>
+  <si>
+    <t>Code court</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>ST_DES</t>
+  </si>
+  <si>
+    <t>Désignation de l'emplacement</t>
+  </si>
+  <si>
+    <t>ST_CODLON</t>
+  </si>
+  <si>
+    <t>Code long</t>
+  </si>
+  <si>
+    <t>ST_INA</t>
+  </si>
+  <si>
+    <t>Inactif</t>
+  </si>
+  <si>
+    <t>ST_DEP</t>
+  </si>
+  <si>
+    <t>Cet emplacement est un dépôt</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>ID_CODUTI</t>
+  </si>
+  <si>
+    <t>Utilisateur</t>
+  </si>
+  <si>
+    <t>BDD MASTER</t>
+  </si>
+  <si>
+    <t>ID_CODCAL</t>
+  </si>
+  <si>
+    <t>Code calendrier</t>
+  </si>
+  <si>
+    <t>PREREQUIS</t>
+  </si>
+  <si>
+    <t>ST_CODPERSEMP</t>
+  </si>
+  <si>
+    <t>Code personnalisé de l'emplacement</t>
+  </si>
+  <si>
+    <t>ID_CODMAG</t>
+  </si>
+  <si>
+    <t>Magasin</t>
+  </si>
+  <si>
+    <t>ID_MAGSIT</t>
+  </si>
+  <si>
+    <t>Site magasin</t>
+  </si>
+  <si>
+    <t>ID_NUMZON</t>
+  </si>
+  <si>
+    <t>Identifiant de la Zone</t>
+  </si>
+  <si>
+    <t>ST_TRAUTICRE</t>
+  </si>
+  <si>
+    <t>Trace utilisateur création</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>ST_TRAUTIUPD</t>
+  </si>
+  <si>
+    <t>Trace utilisateur mise à jour</t>
+  </si>
+  <si>
     <t>DT_TRACRE</t>
   </si>
   <si>
     <t>Trace date création</t>
   </si>
   <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Calculé</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>DT_TRAUPD</t>
   </si>
   <si>
     <t>Trace date mise à jour</t>
   </si>
   <si>
-    <t>ID_CODCAL</t>
-  </si>
-  <si>
-    <t>Code calendrier</t>
-  </si>
-  <si>
-    <t>PREREQUIS</t>
-  </si>
-  <si>
-    <t>ID_CODMAG</t>
-  </si>
-  <si>
-    <t>Magasin</t>
-  </si>
-  <si>
-    <t>ID_MAGSIT</t>
-  </si>
-  <si>
-    <t>Site magasin</t>
-  </si>
-  <si>
-    <t>ID_CODUTI</t>
-  </si>
-  <si>
-    <t>Utilisateur</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>BDD MASTER</t>
-  </si>
-  <si>
-    <t>ID_EXT</t>
-  </si>
-  <si>
-    <t>Données étendues</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>ID_NUMEMP</t>
-  </si>
-  <si>
-    <t>Identifiant technique de l'emplacement</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>ID_NUMZON</t>
-  </si>
-  <si>
-    <t>Identifiant de la Zone</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>NU_NIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niveau dans l'arborescence </t>
-  </si>
-  <si>
-    <t>NU_NUMPER</t>
-  </si>
-  <si>
-    <t>Parent dans l'arborescence</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>NU_ORD</t>
-  </si>
-  <si>
-    <t>Ordre entre frères dans l'arborescence</t>
-  </si>
-  <si>
-    <t>ST_CODCOU</t>
-  </si>
-  <si>
-    <t>Code court</t>
-  </si>
-  <si>
-    <t>ST_CODLON</t>
-  </si>
-  <si>
-    <t>Code long</t>
-  </si>
-  <si>
-    <t>ST_CODPERSEMP</t>
-  </si>
-  <si>
-    <t>Code personnalisé de l'emplacement</t>
-  </si>
-  <si>
-    <t>ST_DEP</t>
-  </si>
-  <si>
-    <t>Cet emplacement est un dépôt</t>
-  </si>
-  <si>
-    <t>ST_DES</t>
-  </si>
-  <si>
-    <t>Désignation de l'emplacement</t>
-  </si>
-  <si>
-    <t>ST_INA</t>
-  </si>
-  <si>
-    <t>Inactif</t>
-  </si>
-  <si>
-    <t>ST_TRAUTICRE</t>
-  </si>
-  <si>
-    <t>Trace utilisateur création</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>ST_TRAUTIUPD</t>
-  </si>
-  <si>
-    <t>Trace utilisateur mise à jour</t>
-  </si>
-  <si>
     <t>RO.CAL*001*ID_CODCAL</t>
   </si>
   <si>
@@ -249,66 +249,6 @@
   </si>
   <si>
     <t>CAS_DE_TEST</t>
-  </si>
-  <si>
-    <t>RT.EQU.001.CRE.01</t>
-  </si>
-  <si>
-    <t>$NULL</t>
-  </si>
-  <si>
-    <t>EMP.RT.EQU.001.CRE.01</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TNR</t>
-  </si>
-  <si>
-    <t>EMP001</t>
-  </si>
-  <si>
-    <t>$DATETIMESYS</t>
-  </si>
-  <si>
-    <t>RT.EQU.001.LEC.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.EQU.001.LEC.01</t>
-  </si>
-  <si>
-    <t>EMP002</t>
-  </si>
-  <si>
-    <t>RT.EQU.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.EQU.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>EMP003</t>
-  </si>
-  <si>
-    <t>EMP.UPD.RT.EQU.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>EMP004</t>
-  </si>
-  <si>
-    <t>RT.EQU.001.SUP.01</t>
-  </si>
-  <si>
-    <t>EMP005</t>
-  </si>
-  <si>
-    <t>RT.EQU.001.REC.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.EQU.001.REC.01</t>
-  </si>
-  <si>
-    <t>EMP006</t>
   </si>
 </sst>
 </file>
@@ -372,15 +312,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -548,7 +488,10 @@
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -560,19 +503,16 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -623,7 +563,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2066,332 +2006,334 @@
       <c r="A4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="B6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>29</v>
-      </c>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="B7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>29</v>
-      </c>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="B9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>37</v>
-      </c>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="C10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>29</v>
-      </c>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="C14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="21"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="C15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="21"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="C16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="C17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="26" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="C18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="C19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="26" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="C20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="26" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="20" t="s">
+      <c r="D21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="21"/>
+      <c r="F21" s="26" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>37</v>
-      </c>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="17" t="s">
@@ -2400,18 +2342,16 @@
       <c r="B23" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="19" t="s">
+      <c r="C23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>37</v>
-      </c>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" ht="12.75" customHeight="1"/>
     <row r="25" ht="12.75" customHeight="1"/>
@@ -3332,69 +3272,69 @@
         <v>19</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="31" t="s">
+      <c r="J1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="O1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>66</v>
-      </c>
       <c r="S1" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="30" t="s">
         <v>69</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -3522,406 +3462,76 @@
       <c r="U6" s="39"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="41">
-        <v>1000.0</v>
-      </c>
-      <c r="C7" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="17" t="str">
-        <f t="shared" ref="G7:G12" si="1">CONCATENATE(UPPER(H7),REPT(".",30-LEN(H7)))</f>
-        <v>EMP.RT.EQU.001.CRE.01.........</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="44" t="str">
-        <f t="shared" ref="I7:I12" si="2">G7</f>
-        <v>EMP.RT.EQU.001.CRE.01.........</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="R7" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="S7" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="T7" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="U7" s="46" t="s">
-        <v>83</v>
-      </c>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="L7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="41">
-        <v>1001.0</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>EMP.RT.EQU.001.LEC.01.........</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>EMP.RT.EQU.001.LEC.01.........</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="R8" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" s="46" t="s">
-        <v>83</v>
-      </c>
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="41">
-        <v>1002.0</v>
-      </c>
-      <c r="C9" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="F9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>EMP.RT.EQU.001.MAJ.01.........</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>EMP.RT.EQU.001.MAJ.01.........</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="R9" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="T9" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="U9" s="46" t="s">
-        <v>83</v>
-      </c>
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="41">
-        <v>1003.0</v>
-      </c>
-      <c r="C10" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="F10" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>EMP.UPD.RT.EQU.001.MAJ.01.....</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>EMP.UPD.RT.EQU.001.MAJ.01.....</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="U10" s="46" t="s">
-        <v>83</v>
-      </c>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="41">
-        <v>1004.0</v>
-      </c>
-      <c r="C11" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="F11" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>EMP.RT.EQU.001.MAJ.01.........</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>EMP.RT.EQU.001.MAJ.01.........</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="R11" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="S11" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="T11" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="U11" s="46" t="s">
-        <v>83</v>
-      </c>
+      <c r="A11" s="48"/>
+      <c r="B11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="41">
-        <v>1005.0</v>
-      </c>
-      <c r="C12" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="F12" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>EMP.RT.EQU.001.REC.01.........</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>EMP.RT.EQU.001.REC.01.........</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="R12" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="S12" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="T12" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="U12" s="46" t="s">
-        <v>83</v>
-      </c>
+      <c r="A12" s="48"/>
+      <c r="B12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.RT.EMP.xlsx
+++ b/TNR_JDD/JDD.RT.EMP.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Ordre entre frères dans l'arborescence</t>
+  </si>
+  <si>
+    <t>Démarre à 0</t>
   </si>
   <si>
     <t>NU_NIV</t>
@@ -2073,16 +2076,19 @@
         <v>24</v>
       </c>
       <c r="F7" s="22"/>
+      <c r="G7" s="23" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>23</v>
@@ -2094,13 +2100,13 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>24</v>
@@ -2109,10 +2115,10 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>27</v>
@@ -2124,13 +2130,13 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>23</v>
@@ -2142,10 +2148,10 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>27</v>
@@ -2157,13 +2163,13 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>24</v>
@@ -2172,13 +2178,13 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>23</v>
@@ -2187,35 +2193,35 @@
         <v>24</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>24</v>
@@ -2224,30 +2230,30 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>23</v>
@@ -2259,13 +2265,13 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>23</v>
@@ -2274,18 +2280,18 @@
         <v>24</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>23</v>
@@ -2294,18 +2300,18 @@
         <v>24</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>23</v>
@@ -2314,18 +2320,18 @@
         <v>24</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>23</v>
@@ -2337,13 +2343,13 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>23</v>
@@ -3284,57 +3290,57 @@
         <v>31</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R1" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S1" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T1" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U1" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -3348,7 +3354,7 @@
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
       <c r="M2" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N2" s="34"/>
       <c r="O2" s="33"/>
@@ -3361,7 +3367,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -3386,10 +3392,10 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="35"/>
@@ -3413,7 +3419,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -3438,7 +3444,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
